--- a/biology/Zoologie/Goéland_railleur/Goéland_railleur.xlsx
+++ b/biology/Zoologie/Goéland_railleur/Goéland_railleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_railleur</t>
+          <t>Goéland_railleur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chroicocephalus genei
 Le Goéland railleur (Chroicocephalus genei) est une espèce d'oiseaux de la famille des Laridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_railleur</t>
+          <t>Goéland_railleur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son alimentation se compose à 50 % de poisson. Il se nourrit également d'invertébrés marins et d'insectes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_railleur</t>
+          <t>Goéland_railleur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goéland railleur se reproduit sur des îlots peu végétalisés, au sein de colonies denses, souvent en compagnie d'autres espèces. Il pond ses œufs a même le sol, dans un nid sommaire.
 Il niche en France depuis la fin des années 1940, particulièrement en Camargue.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_railleur</t>
+          <t>Goéland_railleur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Commémoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom scientifique de l'espèce est dédié au naturaliste italien Giuseppe Gené.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_railleur</t>
+          <t>Goéland_railleur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Baguage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goéland railleur est bagué en France depuis 1997.
 </t>
